--- a/ExecutionTestData/7/TestData.xlsx
+++ b/ExecutionTestData/7/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -461,9 +461,6 @@
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>iWEALTH</t>
   </si>
   <si>
@@ -488,13 +485,19 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>XIAOMI_Redmi8_Android_9.0.0_2dade</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
-  </si>
-  <si>
-    <t>10.0.0</t>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13mini_iOS_15.2.0_22426</t>
+  </si>
+  <si>
+    <t>15.2.0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE2020_iOS_13.6.1_4989f</t>
+  </si>
+  <si>
+    <t>13.6.1</t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1129,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1195,7 +1198,7 @@
         <v>149</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,10 +1206,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,10 +1217,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1239,10 +1242,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1253,10 +1256,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,10 +1267,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,10 +1278,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,7 +1303,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/7/TestData.xlsx
+++ b/ExecutionTestData/7/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\TestDataNew\ExecutionTestData\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final run master testdata\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="165">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,13 +452,13 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>NSTRAX10</t>
-  </si>
-  <si>
-    <t>872465</t>
+    <t>https://device.pcloudy.com</t>
   </si>
   <si>
     <t>Samsung</t>
@@ -476,13 +470,70 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.0.1_aa631</t>
-  </si>
-  <si>
-    <t>14.0.1</t>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ7Pro_Android_8.1.0_42e4e</t>
+  </si>
+  <si>
+    <t>LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi6_Android_9.0.0_ed157</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi8_Android_9.0.0_2dade</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ4_Android_10.0.0_889f0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ6_Android_10.0.0_482da</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
+  </si>
+  <si>
+    <t>OPPO_A3s_Android_8.1.0_37894</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM11_Android_11.0.0_c72bc</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS7_Android_8.0.0_301a4</t>
+  </si>
+  <si>
+    <t>ONEPLUS_NordCE_Android_11.0.0_99096</t>
   </si>
 </sst>
 </file>
@@ -532,7 +583,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,12 +594,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -610,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,7 +705,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,7 +1021,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1060,7 +1106,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1087,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1110,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1137,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1157,107 +1203,671 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1268,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,72 +1969,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>55</v>
+      <c r="A2" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1488,32 +2098,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1540,33 +2150,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1591,32 +2201,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1644,327 +2254,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
